--- a/features/support/Documents/Search_Tearm_List_Data1.xlsx
+++ b/features/support/Documents/Search_Tearm_List_Data1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngunida\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewRubyFramework\btris_automation_regression_suite\features\support\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,34 +32,34 @@
     <t>Red Code or BTRIS Preferred Name</t>
   </si>
   <si>
-    <t>Hemoglobin (Hgb) Whole Blood Test, (CC, SOFTLAB, HGB2)</t>
-  </si>
-  <si>
-    <t>Hemoglobin (Hgb) Whole Blood Test, (CC, SOFTLAB, HGB1)</t>
-  </si>
-  <si>
-    <t>Hemoglobin (Hgb) Whole Blood Test, (CC, SOFTLAB/MIS, HGB)</t>
-  </si>
-  <si>
-    <t>Urine Blood Test, (CC, SOFTLAB/MIS, UHGB)</t>
-  </si>
-  <si>
-    <t>Total White Blood Cell (WBC, Leukocyte) Whole Blood Count, (CC, SOFTLAB, WBCR)</t>
-  </si>
-  <si>
-    <t>Leukocyte (White Blood Cell, WBC) Absolute Whole Blood Count, (CC, SOFTLAB/MIS, WBC)</t>
-  </si>
-  <si>
-    <t>Leukocyte (White Blood Cell, WBC) Absolute Whole Blood Count, (CC, SOFTLAB, WBC1)</t>
-  </si>
-  <si>
-    <t>Potassium Serum Test, (CC, SOFTLAB, K1)</t>
-  </si>
-  <si>
-    <t>Potassium Serum Test, (CC, SOFTLAB, K4)</t>
-  </si>
-  <si>
     <t>Potassium Plasma Test, (CC, SOFTLAB, K5)</t>
+  </si>
+  <si>
+    <t>MRI Brain (CC, RADNET)</t>
+  </si>
+  <si>
+    <t>CT Abdomen (CC, MIS)</t>
+  </si>
+  <si>
+    <t>CT Chest (CC, MIS)</t>
+  </si>
+  <si>
+    <t>US Kidneys - Bilat (CC, RADNET)</t>
+  </si>
+  <si>
+    <t>US Thyroid (CC, MIS)</t>
+  </si>
+  <si>
+    <t>NM Liver/Spleen Scan (CC, MIS)</t>
+  </si>
+  <si>
+    <t>MM Mammography (CC, MIS)</t>
+  </si>
+  <si>
+    <t>DX Shoulder Left (CC, MIS)</t>
+  </si>
+  <si>
+    <t>DX Chest PA+Lateral (CC, MIS)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,52 +437,52 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
